--- a/data/trans_orig/Q19B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Clase-trans_orig.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,28; 37,85</t>
+          <t>28,14; 38,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,97; 55,01</t>
+          <t>35,81; 55,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,73; 39,03</t>
+          <t>25,99; 37,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,97; 27,6</t>
+          <t>19,98; 27,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 33,9</t>
+          <t>22,89; 35,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 38,46</t>
+          <t>17,92; 39,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,91; 32,84</t>
+          <t>25,85; 32,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,64; 43,59</t>
+          <t>31,42; 43,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,95; 34,0</t>
+          <t>24,2; 34,79</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,11; 46,64</t>
+          <t>31,26; 46,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,99; 38,11</t>
+          <t>27,33; 37,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,5; 59,34</t>
+          <t>30,36; 59,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,18; 31,77</t>
+          <t>22,88; 31,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,89; 30,81</t>
+          <t>21,33; 31,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,43</t>
+          <t>20,38; 26,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,85; 37,04</t>
+          <t>28,23; 37,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 33,07</t>
+          <t>25,65; 33,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 42,95</t>
+          <t>26,39; 43,5</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,15; 48,35</t>
+          <t>35,22; 49,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,98; 52,52</t>
+          <t>39,62; 52,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,56; 45,5</t>
+          <t>34,4; 46,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,31; 46,84</t>
+          <t>25,36; 45,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,06; 41,93</t>
+          <t>26,47; 42,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 30,83</t>
+          <t>18,72; 29,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,39; 45,68</t>
+          <t>33,51; 45,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,57; 47,31</t>
+          <t>37,2; 47,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,61; 40,54</t>
+          <t>31,63; 40,19</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,23; 45,92</t>
+          <t>37,42; 45,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,06; 52,15</t>
+          <t>42,9; 52,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,76; 43,11</t>
+          <t>33,51; 44,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,78; 40,85</t>
+          <t>30,69; 41,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,11; 35,95</t>
+          <t>28,03; 36,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,95; 32,79</t>
+          <t>24,2; 32,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,14; 42,73</t>
+          <t>36,17; 42,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,37; 45,08</t>
+          <t>38,36; 45,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,5; 37,36</t>
+          <t>30,54; 37,47</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,2; 43,71</t>
+          <t>30,92; 44,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,63; 55,19</t>
+          <t>40,21; 53,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,92; 40,86</t>
+          <t>30,28; 40,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 50,88</t>
+          <t>36,49; 51,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,23; 56,71</t>
+          <t>42,43; 56,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,25; 42,45</t>
+          <t>30,18; 42,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,4; 45,43</t>
+          <t>35,61; 45,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,01; 52,92</t>
+          <t>42,77; 52,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,37; 38,97</t>
+          <t>31,43; 39,06</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,38; 24,93</t>
+          <t>18,32; 24,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,11; 32,23</t>
+          <t>21,03; 31,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,07; 29,81</t>
+          <t>20,02; 30,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,51; 56,74</t>
+          <t>45,47; 56,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,91; 55,36</t>
+          <t>43,14; 54,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,96; 35,0</t>
+          <t>26,77; 34,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,48; 49,38</t>
+          <t>40,15; 49,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,47; 49,11</t>
+          <t>39,51; 49,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,29; 32,83</t>
+          <t>26,04; 32,39</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,97; 39,75</t>
+          <t>35,0; 39,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,53; 46,02</t>
+          <t>40,66; 45,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,05; 38,79</t>
+          <t>33,08; 38,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,47; 43,09</t>
+          <t>37,63; 43,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,91; 42,26</t>
+          <t>36,87; 42,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,71; 31,01</t>
+          <t>26,71; 31,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,88; 40,44</t>
+          <t>36,84; 40,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,4; 43,37</t>
+          <t>39,52; 43,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,6; 34,09</t>
+          <t>30,58; 34,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q19B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Clase-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio en meses desde la última vez que acudió al dentista, protésico o higienista dental</t>
+          <t>Tiempo medio en meses desde la última consulta al dentista, protésico o higienista dental</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
